--- a/graph/220318_231116.xlsx
+++ b/graph/220318_231116.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20408"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20409"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Experiment\graph\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAFD22E5-C773-4807-805C-3D1D2A749505}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BD7162C-10EC-453C-B292-8AF4D43778C8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="13">
   <si>
     <t>DNN</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -55,15 +55,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>K. Long et al.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DANN_CORR
-(proposed)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Source domain (2022-03-18)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -77,6 +68,14 @@
   </si>
   <si>
     <t>Time variation 1 with unlabeled data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Long et al.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HistLoc</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -156,48 +155,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:strRef>
-          <c:f>工作表1!$D$5</c:f>
-          <c:strCache>
-            <c:ptCount val="1"/>
-            <c:pt idx="0">
-              <c:v>Time variation 1 with few labeled data</c:v>
-            </c:pt>
-          </c:strCache>
-        </c:strRef>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-TW"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -295,9 +253,9 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(工作表1!$D$7:$D$11,工作表1!$D$13:$D$14)</c:f>
+              <c:f>(工作表1!$D$7:$D$10,工作表1!$D$14)</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>DNN</c:v>
                 </c:pt>
@@ -311,14 +269,7 @@
                   <c:v>DANN_1DCAE</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>DANN_CORR
-(proposed)</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>AdapLoc</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>K. Long et al.</c:v>
+                  <c:v>HistLoc</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -332,10 +283,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(工作表1!$E$7:$E$11,工作表1!$E$13:$E$14)</c:f>
+              <c:f>(工作表1!$E$7:$E$10,工作表1!$E$14)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0.56999999999999995</c:v>
                 </c:pt>
@@ -350,12 +301,6 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.81</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.91</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.44</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -457,9 +402,9 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(工作表1!$D$7:$D$11,工作表1!$D$13:$D$14)</c:f>
+              <c:f>(工作表1!$D$7:$D$10,工作表1!$D$14)</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>DNN</c:v>
                 </c:pt>
@@ -473,14 +418,7 @@
                   <c:v>DANN_1DCAE</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>DANN_CORR
-(proposed)</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>AdapLoc</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>K. Long et al.</c:v>
+                  <c:v>HistLoc</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -494,10 +432,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(工作表1!$F$7:$F$11,工作表1!$F$13:$F$14)</c:f>
+              <c:f>(工作表1!$F$7:$F$10,工作表1!$F$14)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>1.43</c:v>
                 </c:pt>
@@ -512,12 +450,6 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.99</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.1299999999999999</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.5299999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -549,47 +481,6 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:strRef>
-              <c:f>工作表1!$D$6</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Models</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="zh-TW"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -836,48 +727,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:strRef>
-          <c:f>工作表1!$D$22</c:f>
-          <c:strCache>
-            <c:ptCount val="1"/>
-            <c:pt idx="0">
-              <c:v>Time variation 1 with unlabeled data</c:v>
-            </c:pt>
-          </c:strCache>
-        </c:strRef>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-TW"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -889,7 +739,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>工作表1!$E$23</c:f>
+              <c:f>工作表1!$E$22</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -971,13 +821,13 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>工作表1!$D$24:$D$31</c15:sqref>
+                    <c15:sqref>工作表1!$D$23:$D$30</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(工作表1!$D$24:$D$28,工作表1!$D$30:$D$31)</c:f>
+              <c:f>(工作表1!$D$23:$D$26,工作表1!$D$30)</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>DNN</c:v>
                 </c:pt>
@@ -991,14 +841,7 @@
                   <c:v>DANN_1DCAE</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>DANN_CORR
-(proposed)</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>AdapLoc</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>K. Long et al.</c:v>
+                  <c:v>HistLoc</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1008,14 +851,14 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>工作表1!$E$24:$E$31</c15:sqref>
+                    <c15:sqref>工作表1!$E$23:$E$30</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(工作表1!$E$24:$E$28,工作表1!$E$30:$E$31)</c:f>
+              <c:f>(工作表1!$E$23:$E$26,工作表1!$E$30)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0.47</c:v>
                 </c:pt>
@@ -1030,12 +873,6 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.63</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.44</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.26</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1051,7 +888,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>工作表1!$F$23</c:f>
+              <c:f>工作表1!$F$22</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1133,13 +970,13 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>工作表1!$D$24:$D$31</c15:sqref>
+                    <c15:sqref>工作表1!$D$23:$D$30</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(工作表1!$D$24:$D$28,工作表1!$D$30:$D$31)</c:f>
+              <c:f>(工作表1!$D$23:$D$26,工作表1!$D$30)</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>DNN</c:v>
                 </c:pt>
@@ -1153,14 +990,7 @@
                   <c:v>DANN_1DCAE</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>DANN_CORR
-(proposed)</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>AdapLoc</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>K. Long et al.</c:v>
+                  <c:v>HistLoc</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1170,14 +1000,14 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>工作表1!$F$24:$F$31</c15:sqref>
+                    <c15:sqref>工作表1!$F$23:$F$30</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(工作表1!$F$24:$F$28,工作表1!$F$30:$F$31)</c:f>
+              <c:f>(工作表1!$F$23:$F$26,工作表1!$F$30)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>1.68</c:v>
                 </c:pt>
@@ -1192,12 +1022,6 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>1.41</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.16</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.0499999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1229,47 +1053,6 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:strRef>
-              <c:f>工作表1!$D$23</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Models</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="zh-TW"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1501,6 +1284,934 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>工作表1!$P$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Source domain (2022-03-18)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-TW"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>工作表1!$O$7:$O$9</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>AdapLoc</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Long et al.</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>HistLoc</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表1!$P$7:$P$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.91</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.44</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.81</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-80A8-4B45-AC5B-61BBBD28FE49}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>工作表1!$Q$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Target domain (2023-11-16)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-TW"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>工作表1!$O$7:$O$9</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>AdapLoc</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Long et al.</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>HistLoc</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表1!$Q$7:$Q$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.1299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5299999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.99</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-80A8-4B45-AC5B-61BBBD28FE49}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="574049119"/>
+        <c:axId val="573510719"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="574049119"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="573510719"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="573510719"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="574049119"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>工作表1!$P$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Source domain (2022-03-18)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-TW"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>工作表1!$O$23:$O$25</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>AdapLoc</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Long et al.</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>HistLoc</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表1!$P$23:$P$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.26</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.63</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C0F3-4BD6-99C3-4B20D481B062}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>工作表1!$Q$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Target domain (2023-11-16)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-TW"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>工作表1!$O$23:$O$25</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>AdapLoc</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Long et al.</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>HistLoc</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表1!$Q$23:$Q$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2.16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.41</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C0F3-4BD6-99C3-4B20D481B062}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="811342287"/>
+        <c:axId val="562438447"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="811342287"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="562438447"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="562438447"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="811342287"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1581,6 +2292,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -2085,6 +2876,1012 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2597,10 +4394,10 @@
       <xdr:rowOff>95251</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>193501</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>94801</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>471901</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>14926</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2629,14 +4426,14 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>376237</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>33337</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>150637</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>32887</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>429037</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>153037</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2656,6 +4453,78 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>449175</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>10162</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="圖表 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99A73AD5-1009-4520-BB1F-BFF58C3E7CFA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>271462</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>463462</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>181612</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="圖表 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A92A936-C27F-48F0-9289-002EE2CDC69C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2927,10 +4796,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="D5:F31"/>
+  <dimension ref="D5:Q30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2938,25 +4807,39 @@
     <col min="4" max="4" width="33.7109375" customWidth="1"/>
     <col min="5" max="5" width="26.140625" customWidth="1"/>
     <col min="6" max="6" width="25" customWidth="1"/>
+    <col min="16" max="16" width="25" customWidth="1"/>
+    <col min="17" max="17" width="24.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
-        <v>11</v>
+        <v>9</v>
+      </c>
+      <c r="O5" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="6" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D6" t="s">
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F6" t="s">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="O6" t="s">
+        <v>1</v>
+      </c>
+      <c r="P6" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="7" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
         <v>0</v>
       </c>
@@ -2966,8 +4849,17 @@
       <c r="F7">
         <v>1.43</v>
       </c>
+      <c r="O7" t="s">
+        <v>6</v>
+      </c>
+      <c r="P7">
+        <v>0.91</v>
+      </c>
+      <c r="Q7">
+        <v>1.1299999999999999</v>
+      </c>
     </row>
-    <row r="8" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
         <v>2</v>
       </c>
@@ -2977,8 +4869,17 @@
       <c r="F8">
         <v>1.59</v>
       </c>
+      <c r="O8" t="s">
+        <v>11</v>
+      </c>
+      <c r="P8">
+        <v>1.44</v>
+      </c>
+      <c r="Q8">
+        <v>2.5299999999999998</v>
+      </c>
     </row>
-    <row r="9" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
         <v>3</v>
       </c>
@@ -2988,8 +4889,17 @@
       <c r="F9">
         <v>1.43</v>
       </c>
+      <c r="O9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P9">
+        <v>0.81</v>
+      </c>
+      <c r="Q9">
+        <v>0.99</v>
+      </c>
     </row>
-    <row r="10" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
         <v>4</v>
       </c>
@@ -3000,152 +4910,191 @@
         <v>1.91</v>
       </c>
     </row>
-    <row r="11" spans="4:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="D11" s="1" t="s">
+    <row r="11" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11">
+        <v>0.76</v>
+      </c>
+      <c r="F11">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="12" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12">
+        <v>0.91</v>
+      </c>
+      <c r="F12">
+        <v>1.1299999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13">
+        <v>1.44</v>
+      </c>
+      <c r="F13">
+        <v>2.5299999999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14">
+        <v>0.81</v>
+      </c>
+      <c r="F14">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="21" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D21" t="s">
+        <v>10</v>
+      </c>
+      <c r="O21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D22" t="s">
+        <v>1</v>
+      </c>
+      <c r="E22" t="s">
+        <v>7</v>
+      </c>
+      <c r="F22" t="s">
         <v>8</v>
       </c>
-      <c r="E11">
-        <v>0.81</v>
-      </c>
-      <c r="F11">
-        <v>0.99</v>
+      <c r="O22" t="s">
+        <v>1</v>
+      </c>
+      <c r="P22" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="12" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D12" t="s">
+    <row r="23" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D23" t="s">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0.47</v>
+      </c>
+      <c r="F23">
+        <v>1.68</v>
+      </c>
+      <c r="O23" t="s">
+        <v>6</v>
+      </c>
+      <c r="P23">
+        <v>0.44</v>
+      </c>
+      <c r="Q23">
+        <v>2.16</v>
+      </c>
+    </row>
+    <row r="24" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D24" t="s">
+        <v>2</v>
+      </c>
+      <c r="E24">
+        <v>0.62</v>
+      </c>
+      <c r="F24">
+        <v>1.87</v>
+      </c>
+      <c r="O24" t="s">
+        <v>11</v>
+      </c>
+      <c r="P24">
+        <v>1.26</v>
+      </c>
+      <c r="Q24">
+        <v>2.0499999999999998</v>
+      </c>
+    </row>
+    <row r="25" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D25" t="s">
+        <v>3</v>
+      </c>
+      <c r="E25">
+        <v>0.91</v>
+      </c>
+      <c r="F25">
+        <v>1.91</v>
+      </c>
+      <c r="O25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P25">
+        <v>0.63</v>
+      </c>
+      <c r="Q25">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="26" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D26" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="F26">
+        <v>1.62</v>
+      </c>
+    </row>
+    <row r="27" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D27" t="s">
         <v>5</v>
       </c>
-      <c r="E12">
-        <v>0.76</v>
-      </c>
-      <c r="F12">
-        <v>1.05</v>
+      <c r="E27">
+        <v>0.73</v>
+      </c>
+      <c r="F27">
+        <v>1.43</v>
       </c>
     </row>
-    <row r="13" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D13" t="s">
+    <row r="28" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D28" t="s">
         <v>6</v>
       </c>
-      <c r="E13">
-        <v>0.91</v>
-      </c>
-      <c r="F13">
-        <v>1.1299999999999999</v>
+      <c r="E28">
+        <v>0.44</v>
+      </c>
+      <c r="F28">
+        <v>2.16</v>
       </c>
     </row>
-    <row r="14" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D14" t="s">
-        <v>7</v>
-      </c>
-      <c r="E14">
-        <v>1.44</v>
-      </c>
-      <c r="F14">
-        <v>2.5299999999999998</v>
+    <row r="29" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D29" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29">
+        <v>1.26</v>
+      </c>
+      <c r="F29">
+        <v>2.0499999999999998</v>
       </c>
     </row>
-    <row r="22" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D22" t="s">
+    <row r="30" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D30" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="23" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D23" t="s">
-        <v>1</v>
-      </c>
-      <c r="E23" t="s">
-        <v>9</v>
-      </c>
-      <c r="F23" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D24" t="s">
-        <v>0</v>
-      </c>
-      <c r="E24">
-        <v>0.47</v>
-      </c>
-      <c r="F24">
-        <v>1.68</v>
-      </c>
-    </row>
-    <row r="25" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D25" t="s">
-        <v>2</v>
-      </c>
-      <c r="E25">
-        <v>0.62</v>
-      </c>
-      <c r="F25">
-        <v>1.87</v>
-      </c>
-    </row>
-    <row r="26" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D26" t="s">
-        <v>3</v>
-      </c>
-      <c r="E26">
-        <v>0.91</v>
-      </c>
-      <c r="F26">
-        <v>1.91</v>
-      </c>
-    </row>
-    <row r="27" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D27" t="s">
-        <v>4</v>
-      </c>
-      <c r="E27">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="F27">
-        <v>1.62</v>
-      </c>
-    </row>
-    <row r="28" spans="4:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="D28" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E28">
+      <c r="E30">
         <v>0.63</v>
       </c>
-      <c r="F28">
+      <c r="F30">
         <v>1.41</v>
-      </c>
-    </row>
-    <row r="29" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D29" t="s">
-        <v>5</v>
-      </c>
-      <c r="E29">
-        <v>0.73</v>
-      </c>
-      <c r="F29">
-        <v>1.43</v>
-      </c>
-    </row>
-    <row r="30" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D30" t="s">
-        <v>6</v>
-      </c>
-      <c r="E30">
-        <v>0.44</v>
-      </c>
-      <c r="F30">
-        <v>2.16</v>
-      </c>
-    </row>
-    <row r="31" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D31" t="s">
-        <v>7</v>
-      </c>
-      <c r="E31">
-        <v>1.26</v>
-      </c>
-      <c r="F31">
-        <v>2.0499999999999998</v>
       </c>
     </row>
   </sheetData>

--- a/graph/220318_231116.xlsx
+++ b/graph/220318_231116.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Experiment\graph\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BD7162C-10EC-453C-B292-8AF4D43778C8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB19D88C-9A85-4B83-A52B-27442A3A0958}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -253,9 +253,9 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(工作表1!$D$7:$D$10,工作表1!$D$14)</c:f>
+              <c:f>(工作表1!$D$7:$D$10,工作表1!$D$12:$D$14)</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>DNN</c:v>
                 </c:pt>
@@ -269,6 +269,12 @@
                   <c:v>DANN_1DCAE</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>AdapLoc</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Long et al.</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>HistLoc</c:v>
                 </c:pt>
               </c:strCache>
@@ -283,10 +289,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(工作表1!$E$7:$E$10,工作表1!$E$14)</c:f>
+              <c:f>(工作表1!$E$7:$E$10,工作表1!$E$12:$E$14)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>0.56999999999999995</c:v>
                 </c:pt>
@@ -300,6 +306,12 @@
                   <c:v>0.64</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>0.91</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.44</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>0.81</c:v>
                 </c:pt>
               </c:numCache>
@@ -402,9 +414,9 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(工作表1!$D$7:$D$10,工作表1!$D$14)</c:f>
+              <c:f>(工作表1!$D$7:$D$10,工作表1!$D$12:$D$14)</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>DNN</c:v>
                 </c:pt>
@@ -418,6 +430,12 @@
                   <c:v>DANN_1DCAE</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>AdapLoc</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Long et al.</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>HistLoc</c:v>
                 </c:pt>
               </c:strCache>
@@ -432,10 +450,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(工作表1!$F$7:$F$10,工作表1!$F$14)</c:f>
+              <c:f>(工作表1!$F$7:$F$10,工作表1!$F$12:$F$14)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>1.43</c:v>
                 </c:pt>
@@ -449,6 +467,12 @@
                   <c:v>1.91</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>1.1299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.5299999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>0.99</c:v>
                 </c:pt>
               </c:numCache>
@@ -825,9 +849,9 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(工作表1!$D$23:$D$26,工作表1!$D$30)</c:f>
+              <c:f>(工作表1!$D$23:$D$26,工作表1!$D$28:$D$30)</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>DNN</c:v>
                 </c:pt>
@@ -841,6 +865,12 @@
                   <c:v>DANN_1DCAE</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>AdapLoc</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Long et al.</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>HistLoc</c:v>
                 </c:pt>
               </c:strCache>
@@ -855,10 +885,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(工作表1!$E$23:$E$26,工作表1!$E$30)</c:f>
+              <c:f>(工作表1!$E$23:$E$26,工作表1!$E$28:$E$30)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>0.47</c:v>
                 </c:pt>
@@ -872,6 +902,12 @@
                   <c:v>0.57999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.26</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>0.63</c:v>
                 </c:pt>
               </c:numCache>
@@ -974,9 +1010,9 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(工作表1!$D$23:$D$26,工作表1!$D$30)</c:f>
+              <c:f>(工作表1!$D$23:$D$26,工作表1!$D$28:$D$30)</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>DNN</c:v>
                 </c:pt>
@@ -990,6 +1026,12 @@
                   <c:v>DANN_1DCAE</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>AdapLoc</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Long et al.</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>HistLoc</c:v>
                 </c:pt>
               </c:strCache>
@@ -1004,10 +1046,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(工作表1!$F$23:$F$26,工作表1!$F$30)</c:f>
+              <c:f>(工作表1!$F$23:$F$26,工作表1!$F$28:$F$30)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>1.68</c:v>
                 </c:pt>
@@ -1021,6 +1063,12 @@
                   <c:v>1.62</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>2.16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.0499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>1.41</c:v>
                 </c:pt>
               </c:numCache>
@@ -4394,8 +4442,8 @@
       <xdr:rowOff>95251</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>471901</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>332701</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>14926</xdr:rowOff>
     </xdr:to>
@@ -4430,8 +4478,8 @@
       <xdr:rowOff>33337</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>429037</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>289837</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>153037</xdr:rowOff>
     </xdr:to>
@@ -4798,8 +4846,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="D5:Q30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N35" sqref="N35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/graph/220318_231116.xlsx
+++ b/graph/220318_231116.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Experiment\graph\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB19D88C-9A85-4B83-A52B-27442A3A0958}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{092AB3D4-CE06-4B7F-9C27-702857F0FA39}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -177,9 +177,14 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
+            <a:pattFill prst="wdDnDiag">
+              <a:fgClr>
+                <a:schemeClr val="accent1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -195,18 +200,13 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -338,9 +338,14 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
+            <a:pattFill prst="lgCheck">
+              <a:fgClr>
+                <a:schemeClr val="accent2"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -356,18 +361,13 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -527,12 +527,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -577,12 +574,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -590,10 +584,10 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" altLang="zh-TW"/>
+                  <a:rPr lang="en-US"/>
                   <a:t>MDE (m)</a:t>
                 </a:r>
-                <a:endParaRPr lang="zh-TW" altLang="en-US"/>
+                <a:endParaRPr lang="zh-TW"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -610,12 +604,9 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -642,12 +633,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -684,12 +672,9 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -724,7 +709,11 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr b="1">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="zh-TW"/>
     </a:p>
@@ -773,9 +762,14 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
+            <a:pattFill prst="wdDnDiag">
+              <a:fgClr>
+                <a:schemeClr val="accent1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -791,18 +785,13 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -934,9 +923,14 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
+            <a:pattFill prst="lgCheck">
+              <a:fgClr>
+                <a:schemeClr val="accent2"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -952,18 +946,13 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -1123,12 +1112,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1173,12 +1159,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -1186,7 +1169,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" altLang="zh-TW"/>
+                  <a:rPr lang="en-US"/>
                   <a:t>MDE (m)</a:t>
                 </a:r>
               </a:p>
@@ -1205,12 +1188,9 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -1237,12 +1217,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1279,12 +1256,9 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -1319,7 +1293,11 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr b="1">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="zh-TW"/>
     </a:p>

--- a/graph/220318_231116.xlsx
+++ b/graph/220318_231116.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20411"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Experiment\graph\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{092AB3D4-CE06-4B7F-9C27-702857F0FA39}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A26043C-9155-43A3-AC1A-C9458BFA1B01}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -177,14 +177,9 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:pattFill prst="wdDnDiag">
-              <a:fgClr>
-                <a:schemeClr val="accent1"/>
-              </a:fgClr>
-              <a:bgClr>
-                <a:schemeClr val="bg1"/>
-              </a:bgClr>
-            </a:pattFill>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -200,7 +195,9 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -361,7 +358,9 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -762,14 +761,9 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:pattFill prst="wdDnDiag">
-              <a:fgClr>
-                <a:schemeClr val="accent1"/>
-              </a:fgClr>
-              <a:bgClr>
-                <a:schemeClr val="bg1"/>
-              </a:bgClr>
-            </a:pattFill>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -785,7 +779,9 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -946,7 +942,9 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -4825,7 +4823,7 @@
   <dimension ref="D5:Q30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N35" sqref="N35"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/graph/220318_231116.xlsx
+++ b/graph/220318_231116.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Experiment\graph\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A26043C-9155-43A3-AC1A-C9458BFA1B01}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E6A8990-20E5-4E1E-A0F2-4A07443A858D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="14">
   <si>
     <t>DNN</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -77,6 +77,9 @@
   <si>
     <t>HistLoc</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FusionDANN</t>
   </si>
 </sst>
 </file>
@@ -269,7 +272,7 @@
                   <c:v>AdapLoc</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Long et al.</c:v>
+                  <c:v>FusionDANN</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>HistLoc</c:v>
@@ -432,7 +435,7 @@
                   <c:v>AdapLoc</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Long et al.</c:v>
+                  <c:v>FusionDANN</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>HistLoc</c:v>
@@ -853,7 +856,7 @@
                   <c:v>AdapLoc</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Long et al.</c:v>
+                  <c:v>FusionDANN</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>HistLoc</c:v>
@@ -1016,7 +1019,7 @@
                   <c:v>AdapLoc</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Long et al.</c:v>
+                  <c:v>FusionDANN</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>HistLoc</c:v>
@@ -4823,7 +4826,7 @@
   <dimension ref="D5:Q30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4958,7 +4961,7 @@
     </row>
     <row r="13" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E13">
         <v>1.44</v>
@@ -5101,7 +5104,7 @@
     </row>
     <row r="29" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D29" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E29">
         <v>1.26</v>
